--- a/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 19,52</t>
+          <t>5,44; 20,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 24,07</t>
+          <t>6,09; 24,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 14,73</t>
+          <t>3,14; 13,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 20,77</t>
+          <t>2,44; 20,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 26,46</t>
+          <t>5,02; 26,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 14,94</t>
+          <t>1,84; 15,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 12,52</t>
+          <t>2,8; 12,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 17,23</t>
+          <t>5,69; 17,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 21,38</t>
+          <t>7,4; 21,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,3</t>
+          <t>3,47; 11,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,6</t>
+          <t>0,82; 4,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,97</t>
+          <t>0,0; 8,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,38</t>
+          <t>6,57; 23,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 18,36</t>
+          <t>3,94; 18,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 35,41</t>
+          <t>3,67; 36,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 43,33</t>
+          <t>6,13; 41,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 25,73</t>
+          <t>2,97; 26,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 16,84</t>
+          <t>5,68; 17,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,97</t>
+          <t>1,8; 11,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 23,81</t>
+          <t>8,74; 24,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 16,1</t>
+          <t>5,27; 16,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,59</t>
+          <t>2,54; 7,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 20,02</t>
+          <t>8,0; 19,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 21,08</t>
+          <t>10,17; 21,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,39</t>
+          <t>3,62; 11,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 33,57</t>
+          <t>3,77; 32,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 25,44</t>
+          <t>3,85; 23,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 15,62</t>
+          <t>1,86; 16,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 34,92</t>
+          <t>17,17; 33,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 18,97</t>
+          <t>7,88; 19,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 19,69</t>
+          <t>10,12; 19,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,15</t>
+          <t>3,69; 10,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,02</t>
+          <t>5,24; 10,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,19</t>
+          <t>4,75; 10,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 22,69</t>
+          <t>13,66; 22,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,27</t>
+          <t>7,73; 15,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,88</t>
+          <t>0,62; 3,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 20,74</t>
+          <t>7,64; 20,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 20,32</t>
+          <t>6,41; 19,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 17,98</t>
+          <t>6,72; 17,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 20,59</t>
+          <t>1,6; 20,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,1</t>
+          <t>6,16; 10,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,58</t>
+          <t>13,08; 20,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,15</t>
+          <t>8,21; 14,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,81</t>
+          <t>1,87; 7,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 24,46</t>
+          <t>7,82; 23,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 19,76</t>
+          <t>8,25; 19,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,0</t>
+          <t>5,59; 13,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,89</t>
+          <t>0,65; 6,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 18,6</t>
+          <t>6,01; 18,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 19,08</t>
+          <t>9,83; 19,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 15,61</t>
+          <t>6,6; 15,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,37; 41,4</t>
+          <t>32,12; 41,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 18,13</t>
+          <t>8,0; 18,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,68</t>
+          <t>10,42; 17,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,31</t>
+          <t>7,08; 13,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,12; 26,82</t>
+          <t>20,22; 26,53</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1425,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,41; 100,0</t>
+          <t>40,55; 92,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,66; 86,93</t>
+          <t>33,8; 87,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,14; 100,0</t>
+          <t>38,23; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,32</t>
+          <t>2,17; 7,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,55</t>
+          <t>2,68; 8,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,15</t>
+          <t>0,84; 5,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,52; 84,94</t>
+          <t>76,71; 85,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,31</t>
+          <t>4,39; 10,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,9</t>
+          <t>5,3; 12,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,39</t>
+          <t>2,62; 7,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,93; 81,8</t>
+          <t>71,79; 80,8</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,19</t>
+          <t>7,64; 12,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,26</t>
+          <t>13,63; 19,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,22</t>
+          <t>7,87; 12,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,28</t>
+          <t>0,8; 2,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,57</t>
+          <t>6,0; 10,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,02</t>
+          <t>8,33; 13,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,83</t>
+          <t>5,4; 9,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,93; 40,72</t>
+          <t>16,58; 40,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,75</t>
+          <t>7,64; 10,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,73</t>
+          <t>11,99; 15,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,27</t>
+          <t>7,2; 10,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,39; 20,31</t>
+          <t>11,84; 20,25</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de invalidez</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9770</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9216</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14094</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4732; 17471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4264; 17014</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3083; 13707</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1282</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1019; 8748</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1868; 9875</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>912; 7831</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1799; 8288</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7327; 22011</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7936; 23326</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5135; 17059</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1378; 8062</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12641</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7455</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1516</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7641</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6046</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20281</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11539</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7562</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6282</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6263; 22569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3123; 14333</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5366</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>950; 9399</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2289; 15564</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1080; 9461</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3427; 10595</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1838; 11853</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11606; 33072</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6092; 19549</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4274; 13061</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14772</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27584</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11495</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2822</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7313</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2991</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12995</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17594</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34897</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14486</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14217</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9465; 22580</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18829; 39964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6293; 19890</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4133</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>801; 6917</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2268; 13838</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>915; 8142</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8865; 17511</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10998; 27304</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24701; 48310</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8222; 23302</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9569; 19934</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25809</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38064</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5221</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14603</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14094</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16494</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23578</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40412</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76839</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54558</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17176; 36677</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47770; 78839</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26721; 52237</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1820; 10842</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8633; 23208</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7421; 22774</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9719; 25127</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5318; 66944</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29220; 52078</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60919; 95234</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40244; 72300</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11745; 47543</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12249</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20686</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17681</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11309</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31403</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21401</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>81320</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23558</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>52088</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39083</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>84508</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6467; 19298</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12592; 30069</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10833; 26599</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>913; 8652</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6077; 18745</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22266; 44448</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13616; 31160</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71126; 91111</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14713; 33772</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39516; 67034</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>28312; 52692</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>73315; 96195</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7563</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10078</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6441</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11852</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13081</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>159411</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19415</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23158</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12103</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>159411</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4174; 9528</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5440; 14115</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3228; 8443</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1574</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5936; 19902</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7221; 21533</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2079; 13435</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>150431; 167677</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12431; 28828</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15109; 34395</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6728; 20539</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>148566; 167228</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>142949</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88308</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>78409</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>287339</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>119503</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>221358</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>141911</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>298487</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>56256; 89910</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>118503; 166034</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>70784; 108104</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6288; 19225</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>34552; 60976</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>62068; 97117</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>39642; 70008</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>153400; 377409</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>100204; 141956</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>193488; 251188</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>117631; 167333</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>202960; 347238</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
